--- a/results/overview/summary_all_walltime.xlsx
+++ b/results/overview/summary_all_walltime.xlsx
@@ -436,62 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>drugs</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>twitter</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>musical_instruments</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>instant_video</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lidl</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>luxury_beauty</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ikea_reviews</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reddit</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>office_products</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ikea_reviews</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>automotive</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>drugs</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>twitter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>luxury_beauty</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>hotel</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>patio_lawn_garden</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>hotel</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>lidl</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>instant_video</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>reddit</t>
         </is>
       </c>
     </row>
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>880.04869556427</v>
+      </c>
+      <c r="C2" t="n">
+        <v>125.0073599815369</v>
+      </c>
+      <c r="D2" t="n">
         <v>176.7431120872498</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>730.914412021637</v>
+      </c>
+      <c r="F2" t="n">
+        <v>264.1496708393097</v>
+      </c>
+      <c r="G2" t="n">
+        <v>611.0661752223969</v>
+      </c>
+      <c r="H2" t="n">
+        <v>122.2454059123993</v>
+      </c>
+      <c r="I2" t="n">
+        <v>197.9030184745789</v>
+      </c>
+      <c r="J2" t="n">
         <v>1198.608413696289</v>
       </c>
-      <c r="D2" t="n">
-        <v>122.2454059123993</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="K2" t="n">
         <v>293.9082410335541</v>
       </c>
-      <c r="F2" t="n">
-        <v>880.04869556427</v>
-      </c>
-      <c r="G2" t="n">
-        <v>125.0073599815369</v>
-      </c>
-      <c r="H2" t="n">
-        <v>611.0661752223969</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>159.0874509811401</v>
+      </c>
+      <c r="M2" t="n">
         <v>319.9789986610413</v>
-      </c>
-      <c r="J2" t="n">
-        <v>159.0874509811401</v>
-      </c>
-      <c r="K2" t="n">
-        <v>264.1496708393097</v>
-      </c>
-      <c r="L2" t="n">
-        <v>730.914412021637</v>
-      </c>
-      <c r="M2" t="n">
-        <v>197.9030184745789</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>10.10558819770813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8519363403320312</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.174875736236572</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
+        <v>7.883801460266113</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.694851636886597</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.780089616775513</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6928644180297852</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.368598937988281</v>
+      </c>
+      <c r="J3" t="n">
         <v>17.53499841690063</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.6928644180297852</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.975479364395142</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.10558819770813</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8519363403320312</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.780089616775513</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
+        <v>5.123377323150635</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.462414979934692</v>
+      </c>
+      <c r="M3" t="n">
         <v>4.545320749282837</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.462414979934692</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.694851636886597</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7.883801460266113</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.368598937988281</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>241.411954164505</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.49746203422546</v>
+      </c>
+      <c r="D4" t="n">
         <v>46.93049097061157</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
+        <v>195.7523448467255</v>
+      </c>
+      <c r="F4" t="n">
+        <v>46.26797533035278</v>
+      </c>
+      <c r="G4" t="n">
+        <v>150.0110960006714</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.56105422973633</v>
+      </c>
+      <c r="I4" t="n">
+        <v>34.25000977516174</v>
+      </c>
+      <c r="J4" t="n">
         <v>389.5512316226959</v>
       </c>
-      <c r="D4" t="n">
-        <v>16.56105422973633</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="K4" t="n">
         <v>90.58149528503418</v>
       </c>
-      <c r="F4" t="n">
-        <v>241.411954164505</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21.49746203422546</v>
-      </c>
-      <c r="H4" t="n">
-        <v>150.0110960006714</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>34.79415583610535</v>
+      </c>
+      <c r="M4" t="n">
         <v>97.10490870475769</v>
-      </c>
-      <c r="J4" t="n">
-        <v>34.79415583610535</v>
-      </c>
-      <c r="K4" t="n">
-        <v>46.26797533035278</v>
-      </c>
-      <c r="L4" t="n">
-        <v>195.7523448467255</v>
-      </c>
-      <c r="M4" t="n">
-        <v>34.25000977516174</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>2041.393538236618</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60.14369559288025</v>
+      </c>
+      <c r="D5" t="n">
         <v>190.9322052001953</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
+        <v>1177.187592983246</v>
+      </c>
+      <c r="F5" t="n">
+        <v>311.0737907886505</v>
+      </c>
+      <c r="G5" t="n">
+        <v>614.8274817466736</v>
+      </c>
+      <c r="H5" t="n">
+        <v>61.5999059677124</v>
+      </c>
+      <c r="I5" t="n">
+        <v>170.3610789775848</v>
+      </c>
+      <c r="J5" t="n">
         <v>2276.936871528625</v>
       </c>
-      <c r="D5" t="n">
-        <v>61.5999059677124</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="K5" t="n">
         <v>386.1109373569489</v>
       </c>
-      <c r="F5" t="n">
-        <v>2041.393538236618</v>
-      </c>
-      <c r="G5" t="n">
-        <v>60.14369559288025</v>
-      </c>
-      <c r="H5" t="n">
-        <v>614.8274817466736</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
+        <v>120.3800938129425</v>
+      </c>
+      <c r="M5" t="n">
         <v>430.759304523468</v>
-      </c>
-      <c r="J5" t="n">
-        <v>120.3800938129425</v>
-      </c>
-      <c r="K5" t="n">
-        <v>311.0737907886505</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1177.187592983246</v>
-      </c>
-      <c r="M5" t="n">
-        <v>170.3610789775848</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>9.757237672805786</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9022314548492432</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.265194177627563</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
+        <v>7.96331787109375</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.595834732055664</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.495334625244141</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6823203563690186</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.360639572143555</v>
+      </c>
+      <c r="J6" t="n">
         <v>17.22799348831177</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.6823203563690186</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="K6" t="n">
         <v>5.115803956985474</v>
       </c>
-      <c r="F6" t="n">
-        <v>9.757237672805786</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9022314548492432</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.495334625244141</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>1.443359136581421</v>
+      </c>
+      <c r="M6" t="n">
         <v>4.72423529624939</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.443359136581421</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.595834732055664</v>
-      </c>
-      <c r="L6" t="n">
-        <v>7.96331787109375</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.360639572143555</v>
       </c>
     </row>
     <row r="7">
@@ -716,18 +716,20 @@
           <t>SVM</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>228744.987988472</v>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>13682.71487140656</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>16120.23056173325</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
     </row>

--- a/results/overview/summary_all_walltime.xlsx
+++ b/results/overview/summary_all_walltime.xlsx
@@ -436,62 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>instant_video</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>twitter</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>automotive</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>luxury_beauty</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>patio_lawn_garden</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>musical_instruments</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>reddit</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>office_products</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ikea_reviews</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>hotel</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>drugs</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>twitter</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>musical_instruments</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>instant_video</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>lidl</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>luxury_beauty</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ikea_reviews</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>reddit</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>office_products</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>automotive</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>hotel</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>patio_lawn_garden</t>
         </is>
       </c>
     </row>
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>880.04869556427</v>
+        <v>730.914412021637</v>
       </c>
       <c r="C2" t="n">
         <v>125.0073599815369</v>
       </c>
       <c r="D2" t="n">
+        <v>293.9082410335541</v>
+      </c>
+      <c r="E2" t="n">
+        <v>611.0661752223969</v>
+      </c>
+      <c r="F2" t="n">
+        <v>319.9789986610413</v>
+      </c>
+      <c r="G2" t="n">
         <v>176.7431120872498</v>
       </c>
-      <c r="E2" t="n">
-        <v>730.914412021637</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>197.9030184745789</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1198.608413696289</v>
+      </c>
+      <c r="J2" t="n">
+        <v>122.2454059123993</v>
+      </c>
+      <c r="K2" t="n">
+        <v>159.0874509811401</v>
+      </c>
+      <c r="L2" t="n">
+        <v>880.04869556427</v>
+      </c>
+      <c r="M2" t="n">
         <v>264.1496708393097</v>
-      </c>
-      <c r="G2" t="n">
-        <v>611.0661752223969</v>
-      </c>
-      <c r="H2" t="n">
-        <v>122.2454059123993</v>
-      </c>
-      <c r="I2" t="n">
-        <v>197.9030184745789</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1198.608413696289</v>
-      </c>
-      <c r="K2" t="n">
-        <v>293.9082410335541</v>
-      </c>
-      <c r="L2" t="n">
-        <v>159.0874509811401</v>
-      </c>
-      <c r="M2" t="n">
-        <v>319.9789986610413</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.10558819770813</v>
+        <v>60.92260074615479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8519363403320312</v>
+        <v>14.14267897605896</v>
       </c>
       <c r="D3" t="n">
-        <v>2.174875736236572</v>
+        <v>32.65757489204407</v>
       </c>
       <c r="E3" t="n">
-        <v>7.883801460266113</v>
+        <v>47.01076507568359</v>
       </c>
       <c r="F3" t="n">
-        <v>1.694851636886597</v>
+        <v>35.85002732276917</v>
       </c>
       <c r="G3" t="n">
-        <v>6.780089616775513</v>
+        <v>22.24718832969666</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6928644180297852</v>
+        <v>16.6618287563324</v>
       </c>
       <c r="I3" t="n">
-        <v>1.368598937988281</v>
+        <v>118.1102478504181</v>
       </c>
       <c r="J3" t="n">
-        <v>17.53499841690063</v>
+        <v>12.84289836883545</v>
       </c>
       <c r="K3" t="n">
-        <v>5.123377323150635</v>
+        <v>18.14395403862</v>
       </c>
       <c r="L3" t="n">
-        <v>1.462414979934692</v>
+        <v>69.74074029922485</v>
       </c>
       <c r="M3" t="n">
-        <v>4.545320749282837</v>
+        <v>19.747474193573</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.411954164505</v>
+        <v>195.7523448467255</v>
       </c>
       <c r="C4" t="n">
         <v>21.49746203422546</v>
       </c>
       <c r="D4" t="n">
+        <v>90.58149528503418</v>
+      </c>
+      <c r="E4" t="n">
+        <v>150.0110960006714</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.10490870475769</v>
+      </c>
+      <c r="G4" t="n">
         <v>46.93049097061157</v>
       </c>
-      <c r="E4" t="n">
-        <v>195.7523448467255</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>34.25000977516174</v>
+      </c>
+      <c r="I4" t="n">
+        <v>389.5512316226959</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16.56105422973633</v>
+      </c>
+      <c r="K4" t="n">
+        <v>34.79415583610535</v>
+      </c>
+      <c r="L4" t="n">
+        <v>241.411954164505</v>
+      </c>
+      <c r="M4" t="n">
         <v>46.26797533035278</v>
-      </c>
-      <c r="G4" t="n">
-        <v>150.0110960006714</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16.56105422973633</v>
-      </c>
-      <c r="I4" t="n">
-        <v>34.25000977516174</v>
-      </c>
-      <c r="J4" t="n">
-        <v>389.5512316226959</v>
-      </c>
-      <c r="K4" t="n">
-        <v>90.58149528503418</v>
-      </c>
-      <c r="L4" t="n">
-        <v>34.79415583610535</v>
-      </c>
-      <c r="M4" t="n">
-        <v>97.10490870475769</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2041.393538236618</v>
+        <v>1177.187592983246</v>
       </c>
       <c r="C5" t="n">
         <v>60.14369559288025</v>
       </c>
       <c r="D5" t="n">
+        <v>386.1109373569489</v>
+      </c>
+      <c r="E5" t="n">
+        <v>614.8274817466736</v>
+      </c>
+      <c r="F5" t="n">
+        <v>430.759304523468</v>
+      </c>
+      <c r="G5" t="n">
         <v>190.9322052001953</v>
       </c>
-      <c r="E5" t="n">
-        <v>1177.187592983246</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>170.3610789775848</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2276.936871528625</v>
+      </c>
+      <c r="J5" t="n">
+        <v>61.5999059677124</v>
+      </c>
+      <c r="K5" t="n">
+        <v>120.3800938129425</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2041.393538236618</v>
+      </c>
+      <c r="M5" t="n">
         <v>311.0737907886505</v>
-      </c>
-      <c r="G5" t="n">
-        <v>614.8274817466736</v>
-      </c>
-      <c r="H5" t="n">
-        <v>61.5999059677124</v>
-      </c>
-      <c r="I5" t="n">
-        <v>170.3610789775848</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2276.936871528625</v>
-      </c>
-      <c r="K5" t="n">
-        <v>386.1109373569489</v>
-      </c>
-      <c r="L5" t="n">
-        <v>120.3800938129425</v>
-      </c>
-      <c r="M5" t="n">
-        <v>430.759304523468</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.757237672805786</v>
+        <v>7.96331787109375</v>
       </c>
       <c r="C6" t="n">
         <v>0.9022314548492432</v>
       </c>
       <c r="D6" t="n">
+        <v>5.115803956985474</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.495334625244141</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.72423529624939</v>
+      </c>
+      <c r="G6" t="n">
         <v>2.265194177627563</v>
       </c>
-      <c r="E6" t="n">
-        <v>7.96331787109375</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>1.360639572143555</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.22799348831177</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6823203563690186</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.443359136581421</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9.757237672805786</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.595834732055664</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6.495334625244141</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6823203563690186</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.360639572143555</v>
-      </c>
-      <c r="J6" t="n">
-        <v>17.22799348831177</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.115803956985474</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.443359136581421</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4.72423529624939</v>
       </c>
     </row>
     <row r="7">
@@ -717,21 +717,33 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>228744.987988472</v>
+        <v>50211.97952365875</v>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>16120.23056173325</v>
+      </c>
+      <c r="E7" t="n">
+        <v>43334.6003139019</v>
+      </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>3974.249224185944</v>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>4361.065144777298</v>
+      </c>
       <c r="K7" t="n">
-        <v>16120.23056173325</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+        <v>7319.897396087646</v>
+      </c>
+      <c r="L7" t="n">
+        <v>228744.987988472</v>
+      </c>
+      <c r="M7" t="n">
+        <v>84303.21725845337</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/overview/summary_all_walltime.xlsx
+++ b/results/overview/summary_all_walltime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,313 +436,356 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>reddit</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>patio_lawn_garden</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>twitter</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>lidl</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>automotive</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ikea_reviews</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>luxury_beauty</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>instant_video</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>twitter</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>automotive</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>luxury_beauty</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>patio_lawn_garden</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>musical_instruments</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>reddit</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>office_products</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ikea_reviews</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hotel</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>drugs</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>lidl</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>ComplementNB</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>730.914412021637</v>
+        <v>1.368598937988281</v>
       </c>
       <c r="C2" t="n">
-        <v>125.0073599815369</v>
+        <v>4.545320749282837</v>
       </c>
       <c r="D2" t="n">
-        <v>293.9082410335541</v>
+        <v>0.8519363403320312</v>
       </c>
       <c r="E2" t="n">
-        <v>611.0661752223969</v>
+        <v>1.694851636886597</v>
       </c>
       <c r="F2" t="n">
-        <v>319.9789986610413</v>
+        <v>5.123377323150635</v>
       </c>
       <c r="G2" t="n">
-        <v>176.7431120872498</v>
+        <v>0.6928644180297852</v>
       </c>
       <c r="H2" t="n">
-        <v>197.9030184745789</v>
+        <v>6.780089616775513</v>
       </c>
       <c r="I2" t="n">
-        <v>1198.608413696289</v>
+        <v>7.883801460266113</v>
       </c>
       <c r="J2" t="n">
-        <v>122.2454059123993</v>
+        <v>2.174875736236572</v>
       </c>
       <c r="K2" t="n">
-        <v>159.0874509811401</v>
+        <v>17.53499841690063</v>
       </c>
       <c r="L2" t="n">
-        <v>880.04869556427</v>
+        <v>1.462414979934692</v>
       </c>
       <c r="M2" t="n">
-        <v>264.1496708393097</v>
+        <v>10.10558819770813</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ComplementNB</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.92260074615479</v>
+        <v>34.25000977516174</v>
       </c>
       <c r="C3" t="n">
-        <v>14.14267897605896</v>
+        <v>97.10490870475769</v>
       </c>
       <c r="D3" t="n">
-        <v>32.65757489204407</v>
+        <v>21.49746203422546</v>
       </c>
       <c r="E3" t="n">
-        <v>47.01076507568359</v>
+        <v>46.26797533035278</v>
       </c>
       <c r="F3" t="n">
-        <v>35.85002732276917</v>
+        <v>90.58149528503418</v>
       </c>
       <c r="G3" t="n">
-        <v>22.24718832969666</v>
+        <v>16.56105422973633</v>
       </c>
       <c r="H3" t="n">
-        <v>16.6618287563324</v>
+        <v>150.0110960006714</v>
       </c>
       <c r="I3" t="n">
-        <v>118.1102478504181</v>
+        <v>195.7523448467255</v>
       </c>
       <c r="J3" t="n">
-        <v>12.84289836883545</v>
+        <v>46.93049097061157</v>
       </c>
       <c r="K3" t="n">
-        <v>18.14395403862</v>
+        <v>389.5512316226959</v>
       </c>
       <c r="L3" t="n">
-        <v>69.74074029922485</v>
+        <v>34.79415583610535</v>
       </c>
       <c r="M3" t="n">
-        <v>19.747474193573</v>
+        <v>241.411954164505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>LR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.7523448467255</v>
+        <v>170.3610789775848</v>
       </c>
       <c r="C4" t="n">
-        <v>21.49746203422546</v>
+        <v>430.759304523468</v>
       </c>
       <c r="D4" t="n">
-        <v>90.58149528503418</v>
+        <v>60.14369559288025</v>
       </c>
       <c r="E4" t="n">
-        <v>150.0110960006714</v>
+        <v>311.0737907886505</v>
       </c>
       <c r="F4" t="n">
-        <v>97.10490870475769</v>
+        <v>386.1109373569489</v>
       </c>
       <c r="G4" t="n">
-        <v>46.93049097061157</v>
+        <v>61.5999059677124</v>
       </c>
       <c r="H4" t="n">
-        <v>34.25000977516174</v>
+        <v>614.8274817466736</v>
       </c>
       <c r="I4" t="n">
-        <v>389.5512316226959</v>
+        <v>1177.187592983246</v>
       </c>
       <c r="J4" t="n">
-        <v>16.56105422973633</v>
+        <v>190.9322052001953</v>
       </c>
       <c r="K4" t="n">
-        <v>34.79415583610535</v>
+        <v>2276.936871528625</v>
       </c>
       <c r="L4" t="n">
-        <v>241.411954164505</v>
+        <v>120.3800938129425</v>
       </c>
       <c r="M4" t="n">
-        <v>46.26797533035278</v>
+        <v>2041.393538236618</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>MultinomialNB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1177.187592983246</v>
+        <v>1.360639572143555</v>
       </c>
       <c r="C5" t="n">
-        <v>60.14369559288025</v>
+        <v>4.72423529624939</v>
       </c>
       <c r="D5" t="n">
-        <v>386.1109373569489</v>
+        <v>0.9022314548492432</v>
       </c>
       <c r="E5" t="n">
-        <v>614.8274817466736</v>
+        <v>1.595834732055664</v>
       </c>
       <c r="F5" t="n">
-        <v>430.759304523468</v>
+        <v>5.115803956985474</v>
       </c>
       <c r="G5" t="n">
-        <v>190.9322052001953</v>
+        <v>0.6823203563690186</v>
       </c>
       <c r="H5" t="n">
-        <v>170.3610789775848</v>
+        <v>6.495334625244141</v>
       </c>
       <c r="I5" t="n">
-        <v>2276.936871528625</v>
+        <v>7.96331787109375</v>
       </c>
       <c r="J5" t="n">
-        <v>61.5999059677124</v>
+        <v>2.265194177627563</v>
       </c>
       <c r="K5" t="n">
-        <v>120.3800938129425</v>
+        <v>17.22799348831177</v>
       </c>
       <c r="L5" t="n">
-        <v>2041.393538236618</v>
+        <v>1.443359136581421</v>
       </c>
       <c r="M5" t="n">
-        <v>311.0737907886505</v>
+        <v>9.757237672805786</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MultinomialNB</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.96331787109375</v>
+        <v>197.9030184745789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9022314548492432</v>
+        <v>319.9789986610413</v>
       </c>
       <c r="D6" t="n">
-        <v>5.115803956985474</v>
+        <v>125.0073599815369</v>
       </c>
       <c r="E6" t="n">
-        <v>6.495334625244141</v>
+        <v>264.1496708393097</v>
       </c>
       <c r="F6" t="n">
-        <v>4.72423529624939</v>
+        <v>293.9082410335541</v>
       </c>
       <c r="G6" t="n">
-        <v>2.265194177627563</v>
+        <v>122.2454059123993</v>
       </c>
       <c r="H6" t="n">
-        <v>1.360639572143555</v>
+        <v>611.0661752223969</v>
       </c>
       <c r="I6" t="n">
-        <v>17.22799348831177</v>
+        <v>730.914412021637</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6823203563690186</v>
+        <v>176.7431120872498</v>
       </c>
       <c r="K6" t="n">
-        <v>1.443359136581421</v>
+        <v>1198.608413696289</v>
       </c>
       <c r="L6" t="n">
-        <v>9.757237672805786</v>
+        <v>159.0874509811401</v>
       </c>
       <c r="M6" t="n">
-        <v>1.595834732055664</v>
+        <v>880.04869556427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>setfit</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>31.68623161315918</v>
+      </c>
+      <c r="C7" t="n">
+        <v>223.4237172603607</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.57607388496399</v>
+      </c>
+      <c r="E7" t="n">
+        <v>34.34165120124817</v>
+      </c>
+      <c r="F7" t="n">
+        <v>79.33475589752197</v>
+      </c>
+      <c r="G7" t="n">
+        <v>41.35797667503357</v>
+      </c>
+      <c r="H7" t="n">
+        <v>403.7233846187592</v>
+      </c>
+      <c r="I7" t="n">
+        <v>257.0964665412903</v>
+      </c>
+      <c r="J7" t="n">
+        <v>79.90693593025208</v>
+      </c>
+      <c r="K7" t="n">
+        <v>467.1691646575928</v>
+      </c>
+      <c r="L7" t="n">
+        <v>199.0017547607422</v>
+      </c>
+      <c r="M7" t="n">
+        <v>74.40118527412415</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>84303.21725845337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16120.23056173325</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4361.065144777298</v>
+      </c>
+      <c r="H8" t="n">
+        <v>43334.6003139019</v>
+      </c>
+      <c r="I8" t="n">
         <v>50211.97952365875</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>16120.23056173325</v>
-      </c>
-      <c r="E7" t="n">
-        <v>43334.6003139019</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="J8" t="n">
         <v>3974.249224185944</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>4361.065144777298</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
         <v>7319.897396087646</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M8" t="n">
         <v>228744.987988472</v>
-      </c>
-      <c r="M7" t="n">
-        <v>84303.21725845337</v>
       </c>
     </row>
   </sheetData>

--- a/results/overview/summary_all_walltime.xlsx
+++ b/results/overview/summary_all_walltime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,57 +436,57 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>lidl</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>instant_video</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>office_products</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>luxury_beauty</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hotel</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>musical_instruments</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>automotive</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>reddit</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>twitter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ikea_reviews</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>patio_lawn_garden</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>twitter</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lidl</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>automotive</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ikea_reviews</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>luxury_beauty</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>instant_video</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>musical_instruments</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>office_products</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>hotel</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -498,293 +498,574 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ComplementNB</t>
+          <t>siebert</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.368598937988281</v>
+        <v>54246.80686712265</v>
       </c>
       <c r="C2" t="n">
-        <v>4.545320749282837</v>
+        <v>35856.27499008179</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8519363403320312</v>
+        <v>15878.5254611969</v>
       </c>
       <c r="E2" t="n">
-        <v>1.694851636886597</v>
+        <v>41717.8429684639</v>
       </c>
       <c r="F2" t="n">
-        <v>5.123377323150635</v>
+        <v>25463.82272219658</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6928644180297852</v>
+        <v>68994.48835206032</v>
       </c>
       <c r="H2" t="n">
-        <v>6.780089616775513</v>
+        <v>8430.419271469116</v>
       </c>
       <c r="I2" t="n">
-        <v>7.883801460266113</v>
+        <v>10017.52637791634</v>
       </c>
       <c r="J2" t="n">
-        <v>2.174875736236572</v>
+        <v>7108.258353471756</v>
       </c>
       <c r="K2" t="n">
-        <v>17.53499841690063</v>
+        <v>14248.49114346504</v>
       </c>
       <c r="L2" t="n">
-        <v>1.462414979934692</v>
+        <v>65898.97695040703</v>
       </c>
       <c r="M2" t="n">
-        <v>10.10558819770813</v>
+        <v>11023.79735350609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.25000977516174</v>
+        <v>1396.653830766678</v>
       </c>
       <c r="C3" t="n">
-        <v>97.10490870475769</v>
+        <v>1829.589626073837</v>
       </c>
       <c r="D3" t="n">
-        <v>21.49746203422546</v>
+        <v>1645.406055450439</v>
       </c>
       <c r="E3" t="n">
-        <v>46.26797533035278</v>
+        <v>1916.62530374527</v>
       </c>
       <c r="F3" t="n">
-        <v>90.58149528503418</v>
+        <v>1445.007369041443</v>
       </c>
       <c r="G3" t="n">
-        <v>16.56105422973633</v>
+        <v>876.6954169273376</v>
       </c>
       <c r="H3" t="n">
-        <v>150.0110960006714</v>
+        <v>2138.23846912384</v>
       </c>
       <c r="I3" t="n">
-        <v>195.7523448467255</v>
+        <v>1030.692955970764</v>
       </c>
       <c r="J3" t="n">
-        <v>46.93049097061157</v>
+        <v>565.7863554954529</v>
       </c>
       <c r="K3" t="n">
-        <v>389.5512316226959</v>
+        <v>1434.088736772537</v>
       </c>
       <c r="L3" t="n">
-        <v>34.79415583610535</v>
+        <v>1029.727051496506</v>
       </c>
       <c r="M3" t="n">
-        <v>241.411954164505</v>
+        <v>2995.98370885849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>few_shot_gpt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.3610789775848</v>
+        <v>199.5261580944061</v>
       </c>
       <c r="C4" t="n">
-        <v>430.759304523468</v>
+        <v>713.4332902431488</v>
       </c>
       <c r="D4" t="n">
-        <v>60.14369559288025</v>
+        <v>1059.831076383591</v>
       </c>
       <c r="E4" t="n">
-        <v>311.0737907886505</v>
+        <v>533.7357950210571</v>
       </c>
       <c r="F4" t="n">
-        <v>386.1109373569489</v>
+        <v>505.1440324783325</v>
       </c>
       <c r="G4" t="n">
-        <v>61.5999059677124</v>
+        <v>438.2798812389374</v>
       </c>
       <c r="H4" t="n">
-        <v>614.8274817466736</v>
+        <v>570.1898181438446</v>
       </c>
       <c r="I4" t="n">
-        <v>1177.187592983246</v>
+        <v>200.1571457386017</v>
       </c>
       <c r="J4" t="n">
-        <v>190.9322052001953</v>
+        <v>173.7684047222137</v>
       </c>
       <c r="K4" t="n">
-        <v>2276.936871528625</v>
+        <v>137.9701948165894</v>
       </c>
       <c r="L4" t="n">
-        <v>120.3800938129425</v>
+        <v>1124.599052429199</v>
       </c>
       <c r="M4" t="n">
-        <v>2041.393538236618</v>
+        <v>1214.820894002914</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MultinomialNB</t>
+          <t>nlptown</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.360639572143555</v>
+        <v>1022.445343255997</v>
       </c>
       <c r="C5" t="n">
-        <v>4.72423529624939</v>
+        <v>3199.690280437469</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9022314548492432</v>
+        <v>5524.076355695724</v>
       </c>
       <c r="E5" t="n">
-        <v>1.595834732055664</v>
+        <v>2812.752490520477</v>
       </c>
       <c r="F5" t="n">
-        <v>5.115803956985474</v>
+        <v>515.5247151851654</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6823203563690186</v>
+        <v>837.7285401821136</v>
       </c>
       <c r="H5" t="n">
-        <v>6.495334625244141</v>
+        <v>1584.069380998611</v>
       </c>
       <c r="I5" t="n">
-        <v>7.96331787109375</v>
+        <v>785.5128049850464</v>
       </c>
       <c r="J5" t="n">
-        <v>2.265194177627563</v>
+        <v>421.5620970726013</v>
       </c>
       <c r="K5" t="n">
-        <v>17.22799348831177</v>
+        <v>386.576584815979</v>
       </c>
       <c r="L5" t="n">
-        <v>1.443359136581421</v>
+        <v>1482.729667186737</v>
       </c>
       <c r="M5" t="n">
-        <v>9.757237672805786</v>
+        <v>2746.486718416214</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>197.9030184745789</v>
+        <v>3140.35889673233</v>
       </c>
       <c r="C6" t="n">
-        <v>319.9789986610413</v>
+        <v>3527.959579944611</v>
       </c>
       <c r="D6" t="n">
-        <v>125.0073599815369</v>
+        <v>5907.635102033615</v>
       </c>
       <c r="E6" t="n">
-        <v>264.1496708393097</v>
+        <v>3817.547918796539</v>
       </c>
       <c r="F6" t="n">
-        <v>293.9082410335541</v>
+        <v>808.9260375499725</v>
       </c>
       <c r="G6" t="n">
-        <v>122.2454059123993</v>
+        <v>1362.82243013382</v>
       </c>
       <c r="H6" t="n">
-        <v>611.0661752223969</v>
+        <v>17340.71390128136</v>
       </c>
       <c r="I6" t="n">
-        <v>730.914412021637</v>
+        <v>778.8803391456604</v>
       </c>
       <c r="J6" t="n">
-        <v>176.7431120872498</v>
+        <v>409.3556551933289</v>
       </c>
       <c r="K6" t="n">
-        <v>1198.608413696289</v>
+        <v>801.6802787780762</v>
       </c>
       <c r="L6" t="n">
-        <v>159.0874509811401</v>
+        <v>1518.703548908234</v>
       </c>
       <c r="M6" t="n">
-        <v>880.04869556427</v>
+        <v>4373.754950761795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>setfit</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.68623161315918</v>
+        <v>264.1496708393097</v>
       </c>
       <c r="C7" t="n">
-        <v>223.4237172603607</v>
+        <v>730.914412021637</v>
       </c>
       <c r="D7" t="n">
-        <v>23.57607388496399</v>
+        <v>1198.608413696289</v>
       </c>
       <c r="E7" t="n">
-        <v>34.34165120124817</v>
+        <v>611.0661752223969</v>
       </c>
       <c r="F7" t="n">
-        <v>79.33475589752197</v>
+        <v>159.0874509811401</v>
       </c>
       <c r="G7" t="n">
-        <v>41.35797667503357</v>
+        <v>176.7431120872498</v>
       </c>
       <c r="H7" t="n">
-        <v>403.7233846187592</v>
+        <v>293.9082410335541</v>
       </c>
       <c r="I7" t="n">
-        <v>257.0964665412903</v>
+        <v>197.9030184745789</v>
       </c>
       <c r="J7" t="n">
-        <v>79.90693593025208</v>
+        <v>125.0073599815369</v>
       </c>
       <c r="K7" t="n">
-        <v>467.1691646575928</v>
+        <v>122.2454059123993</v>
       </c>
       <c r="L7" t="n">
-        <v>199.0017547607422</v>
+        <v>319.9789986610413</v>
       </c>
       <c r="M7" t="n">
-        <v>74.40118527412415</v>
+        <v>880.04869556427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>distilbert</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>655.3373956680298</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1710.59023141861</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2955.539016723633</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1531.566653251648</v>
+      </c>
+      <c r="F8" t="n">
+        <v>309.7831325531006</v>
+      </c>
+      <c r="G8" t="n">
+        <v>465.916796207428</v>
+      </c>
+      <c r="H8" t="n">
+        <v>853.0968472957611</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1657.773595333099</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1093.142700195312</v>
+      </c>
+      <c r="K8" t="n">
+        <v>236.5872240066528</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6482.982811689377</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1567.352761745453</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>36244.22600913048</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>144441.2722918987</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ComplementNB</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.694851636886597</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.883801460266113</v>
+      </c>
+      <c r="D10" t="n">
+        <v>17.53499841690063</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.780089616775513</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.462414979934692</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.174875736236572</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.123377323150635</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.368598937988281</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8519363403320312</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.6928644180297852</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.545320749282837</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10.10558819770813</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>46.26797533035278</v>
+      </c>
+      <c r="C11" t="n">
+        <v>195.7523448467255</v>
+      </c>
+      <c r="D11" t="n">
+        <v>389.5512316226959</v>
+      </c>
+      <c r="E11" t="n">
+        <v>150.0110960006714</v>
+      </c>
+      <c r="F11" t="n">
+        <v>34.79415583610535</v>
+      </c>
+      <c r="G11" t="n">
+        <v>46.93049097061157</v>
+      </c>
+      <c r="H11" t="n">
+        <v>90.58149528503418</v>
+      </c>
+      <c r="I11" t="n">
+        <v>34.25000977516174</v>
+      </c>
+      <c r="J11" t="n">
+        <v>21.49746203422546</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16.56105422973633</v>
+      </c>
+      <c r="L11" t="n">
+        <v>97.10490870475769</v>
+      </c>
+      <c r="M11" t="n">
+        <v>241.411954164505</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>setfit</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>30.48584914207458</v>
+      </c>
+      <c r="C12" t="n">
+        <v>648.4993081092834</v>
+      </c>
+      <c r="D12" t="n">
+        <v>612.937896490097</v>
+      </c>
+      <c r="E12" t="n">
+        <v>595.016012430191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>45.50178337097168</v>
+      </c>
+      <c r="G12" t="n">
+        <v>485.1065740585327</v>
+      </c>
+      <c r="H12" t="n">
+        <v>208.1525614261627</v>
+      </c>
+      <c r="I12" t="n">
+        <v>26.63193655014038</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6.231050491333008</v>
+      </c>
+      <c r="K12" t="n">
+        <v>31.40645265579224</v>
+      </c>
+      <c r="L12" t="n">
+        <v>622.8347940444946</v>
+      </c>
+      <c r="M12" t="n">
+        <v>227.3881893157959</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>311.0737907886505</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1177.187592983246</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2276.936871528625</v>
+      </c>
+      <c r="E13" t="n">
+        <v>614.8274817466736</v>
+      </c>
+      <c r="F13" t="n">
+        <v>120.3800938129425</v>
+      </c>
+      <c r="G13" t="n">
+        <v>190.9322052001953</v>
+      </c>
+      <c r="H13" t="n">
+        <v>386.1109373569489</v>
+      </c>
+      <c r="I13" t="n">
+        <v>170.3610789775848</v>
+      </c>
+      <c r="J13" t="n">
+        <v>60.14369559288025</v>
+      </c>
+      <c r="K13" t="n">
+        <v>61.5999059677124</v>
+      </c>
+      <c r="L13" t="n">
+        <v>430.759304523468</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2041.393538236618</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>MultinomialNB</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.595834732055664</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.96331787109375</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17.22799348831177</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.495334625244141</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.443359136581421</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.265194177627563</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.115803956985474</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.360639572143555</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9022314548492432</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.6823203563690186</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.72423529624939</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9.757237672805786</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
+      <c r="B15" t="n">
         <v>84303.21725845337</v>
       </c>
-      <c r="F8" t="n">
+      <c r="C15" t="n">
+        <v>50211.97952365875</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>43334.6003139019</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7319.897396087646</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3974.249224185944</v>
+      </c>
+      <c r="H15" t="n">
         <v>16120.23056173325</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
         <v>4361.065144777298</v>
       </c>
-      <c r="H8" t="n">
-        <v>43334.6003139019</v>
-      </c>
-      <c r="I8" t="n">
-        <v>50211.97952365875</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3974.249224185944</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>7319.897396087646</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>228744.987988472</v>
       </c>
     </row>
